--- a/Docs/Gamemodes.xlsx
+++ b/Docs/Gamemodes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D1FFB2-89EC-4347-98EC-C2D2285EA8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD9E69-2E5F-4808-B677-39824B0B11E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamemodes" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Last Piece Standing</t>
   </si>
   <si>
-    <t>Chess played until the last piece</t>
-  </si>
-  <si>
     <t>600-699</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>800-899</t>
+  </si>
+  <si>
+    <t>Chess played until the last piece is taken</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -673,13 +673,13 @@
         <v>700</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -693,13 +693,13 @@
         <v>800</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>

--- a/Docs/Gamemodes.xlsx
+++ b/Docs/Gamemodes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD9E69-2E5F-4808-B677-39824B0B11E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C2FA1C-0EC3-4B39-BDD8-0DAA72E669CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamemodes" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>

--- a/Docs/Gamemodes.xlsx
+++ b/Docs/Gamemodes.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C2FA1C-0EC3-4B39-BDD8-0DAA72E669CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C21C8-5BDC-4326-8747-6CF376634977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamemodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -496,7 +497,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/Docs/Gamemodes.xlsx
+++ b/Docs/Gamemodes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C21C8-5BDC-4326-8747-6CF376634977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4404EB9D-784B-45D7-B46E-CFA861928C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,11 @@
     <sheet name="Gamemodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>UID</t>
   </si>
@@ -115,6 +114,12 @@
   </si>
   <si>
     <t>Chess played until the last piece is taken</t>
+  </si>
+  <si>
+    <t>Connect 4</t>
+  </si>
+  <si>
+    <t>900-999</t>
   </si>
 </sst>
 </file>
@@ -493,11 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +714,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>900</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Gamemodes.xlsx
+++ b/Docs/Gamemodes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4404EB9D-784B-45D7-B46E-CFA861928C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBF8E6-FF8A-4C8F-B35D-71CCAA446CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamemodes" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,10 +708,10 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,10 +728,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
